--- a/mvp/список продуктів.xlsx
+++ b/mvp/список продуктів.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\для харду\програмування\код\my scripts\chefsmath\mvp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\для харду\програмування\код\my scripts\chefs-math\mvp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC7325-FB20-4402-A59E-31E18FBD3E31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F8250C-5C85-48B8-AB3F-FD60ACEAC5C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>продукт</t>
   </si>
@@ -96,7 +96,13 @@
     <t>кал100г</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>% нетто</t>
+  </si>
+  <si>
+    <t>борошно</t>
+  </si>
+  <si>
+    <t>гречка</t>
   </si>
 </sst>
 </file>
@@ -423,20 +429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,25 +453,28 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -475,8 +484,11 @@
       <c r="C2">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -486,8 +498,11 @@
       <c r="C3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -497,8 +512,11 @@
       <c r="C4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -508,8 +526,11 @@
       <c r="C5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -519,8 +540,11 @@
       <c r="C6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -530,8 +554,11 @@
       <c r="C7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -541,8 +568,11 @@
       <c r="C8">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -552,8 +582,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -563,8 +596,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -574,8 +610,11 @@
       <c r="C11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -585,8 +624,11 @@
       <c r="C12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -596,8 +638,11 @@
       <c r="C13">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -607,8 +652,11 @@
       <c r="C14">
         <v>600</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -618,16 +666,36 @@
       <c r="C15">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/mvp/список продуктів.xlsx
+++ b/mvp/список продуктів.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\для харду\програмування\код\my scripts\chefs-math\mvp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F8250C-5C85-48B8-AB3F-FD60ACEAC5C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A4FE94-F245-46C3-9EF9-95E163C499C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/mvp/список продуктів.xlsx
+++ b/mvp/список продуктів.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\для харду\програмування\код\my scripts\chefs-math\mvp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A4FE94-F245-46C3-9EF9-95E163C499C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF5986-5D33-49F5-A7BF-D4E59EF72D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>продукт</t>
   </si>
@@ -36,80 +36,197 @@
     <t>картопля</t>
   </si>
   <si>
-    <t>капуста</t>
-  </si>
-  <si>
     <t>морква</t>
   </si>
   <si>
     <t>цибуля</t>
   </si>
   <si>
-    <t>фасоля</t>
-  </si>
-  <si>
     <t>буряк</t>
   </si>
   <si>
-    <t>олія</t>
-  </si>
-  <si>
     <t>сіль</t>
   </si>
   <si>
     <t>вода</t>
   </si>
   <si>
-    <t>квашений огірок</t>
-  </si>
-  <si>
-    <t>горошок конс.</t>
-  </si>
-  <si>
-    <t>кукурузда конс.</t>
-  </si>
-  <si>
     <t>майонез</t>
   </si>
   <si>
-    <t>молочна ковбаса</t>
-  </si>
-  <si>
-    <t>білки</t>
-  </si>
-  <si>
-    <t>жири</t>
-  </si>
-  <si>
-    <t>вітаміни</t>
-  </si>
-  <si>
-    <t>мікро/макро</t>
-  </si>
-  <si>
-    <t>клітковина</t>
-  </si>
-  <si>
-    <t>вугл</t>
-  </si>
-  <si>
     <t>кал100г</t>
   </si>
   <si>
     <t>% нетто</t>
   </si>
   <si>
-    <t>борошно</t>
-  </si>
-  <si>
     <t>гречка</t>
+  </si>
+  <si>
+    <t>вафлі 1</t>
+  </si>
+  <si>
+    <t>вівсянка</t>
+  </si>
+  <si>
+    <t>згущене молоко</t>
+  </si>
+  <si>
+    <t>цукор</t>
+  </si>
+  <si>
+    <t>заглушка</t>
+  </si>
+  <si>
+    <t>олія соняшникова</t>
+  </si>
+  <si>
+    <t>перець чорний мелений</t>
+  </si>
+  <si>
+    <t>свинина тушкована</t>
+  </si>
+  <si>
+    <t>томатна паста</t>
+  </si>
+  <si>
+    <t>цибуля ріпчаста</t>
+  </si>
+  <si>
+    <t>кавовий напиток</t>
+  </si>
+  <si>
+    <t>какао</t>
+  </si>
+  <si>
+    <t>кабачкова ікра</t>
+  </si>
+  <si>
+    <t>хліб</t>
+  </si>
+  <si>
+    <t>сардини</t>
+  </si>
+  <si>
+    <t>паштет</t>
+  </si>
+  <si>
+    <t>повидло</t>
+  </si>
+  <si>
+    <t>шпроти</t>
+  </si>
+  <si>
+    <t>сушка</t>
+  </si>
+  <si>
+    <t>кукурудзянка</t>
+  </si>
+  <si>
+    <t>кускус</t>
+  </si>
+  <si>
+    <t>макарон</t>
+  </si>
+  <si>
+    <t>манка</t>
+  </si>
+  <si>
+    <t>огірки свіжі</t>
+  </si>
+  <si>
+    <t>оцет</t>
+  </si>
+  <si>
+    <t>перловка</t>
+  </si>
+  <si>
+    <t>печиво 1</t>
+  </si>
+  <si>
+    <t>пшоно</t>
+  </si>
+  <si>
+    <t>рис</t>
+  </si>
+  <si>
+    <t>горошок концервований</t>
+  </si>
+  <si>
+    <t>капуста білокачанна</t>
+  </si>
+  <si>
+    <t>кукурудза концервована</t>
+  </si>
+  <si>
+    <t>капуста пекінська</t>
+  </si>
+  <si>
+    <t>крекер</t>
+  </si>
+  <si>
+    <t>олія соняшникова нерафінована</t>
+  </si>
+  <si>
+    <t>яблука</t>
+  </si>
+  <si>
+    <t>борщова заправка</t>
+  </si>
+  <si>
+    <t>приправа 10 овочів</t>
+  </si>
+  <si>
+    <t>сметана</t>
+  </si>
+  <si>
+    <t>фасоля концервована</t>
+  </si>
+  <si>
+    <t>часник</t>
+  </si>
+  <si>
+    <t>горохові брикети</t>
+  </si>
+  <si>
+    <t>вермішель</t>
+  </si>
+  <si>
+    <t>помідори</t>
+  </si>
+  <si>
+    <t>сардини концервовані</t>
+  </si>
+  <si>
+    <t>арахіс</t>
+  </si>
+  <si>
+    <t>горіхи волоські</t>
+  </si>
+  <si>
+    <t>курага</t>
+  </si>
+  <si>
+    <t>насіння соняшника чищене</t>
+  </si>
+  <si>
+    <t>ізюм</t>
+  </si>
+  <si>
+    <t>чай чорний</t>
+  </si>
+  <si>
+    <t>яблука цілі</t>
+  </si>
+  <si>
+    <t>огірки мариновані</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +241,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,9 +268,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,256 +552,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="3" max="4" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="C2">
         <v>250</v>
       </c>
       <c r="D2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>6.3</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>5.2</v>
-      </c>
       <c r="C5">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
+        <v>10.6</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>24.5</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>37.9</v>
+      </c>
+      <c r="C8">
+        <v>250</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>250</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>9.5</v>
       </c>
-      <c r="C6">
-        <v>400</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>500</v>
-      </c>
-      <c r="D7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>600</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>11.1</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="D11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>20.5</v>
+        <v>330</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>30.2</v>
+        <v>167</v>
       </c>
       <c r="C13">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="D13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C14">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C15">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -686,15 +791,645 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>257</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C18">
+        <v>250</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B19">
+        <v>52.5</v>
+      </c>
+      <c r="C19">
+        <v>250</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>61.9</v>
+      </c>
+      <c r="C20">
+        <v>250</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>195.7</v>
+      </c>
+      <c r="C21">
+        <v>250</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C22">
+        <v>250</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>116.3</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>56.3</v>
+      </c>
+      <c r="C24">
+        <v>250</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>208.3</v>
+      </c>
+      <c r="C25">
+        <v>250</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C17">
+      <c r="B26">
         <v>60</v>
       </c>
-      <c r="D17">
+      <c r="C26">
+        <v>250</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>250</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>250</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C29">
+        <v>250</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>13.6</v>
+      </c>
+      <c r="C30">
+        <v>250</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>250</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>27.6</v>
+      </c>
+      <c r="C32">
+        <v>250</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>250</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>250</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>98.8</v>
+      </c>
+      <c r="C35">
+        <v>250</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>14.6</v>
+      </c>
+      <c r="C36">
+        <v>250</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>29.9</v>
+      </c>
+      <c r="C37">
+        <v>250</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>42.9</v>
+      </c>
+      <c r="C38">
+        <v>250</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>250</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>70.3</v>
+      </c>
+      <c r="C40">
+        <v>250</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>250</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>72.2</v>
+      </c>
+      <c r="C42">
+        <v>250</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="C43">
+        <v>250</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>250</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="C45">
+        <v>250</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>250</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>11.9</v>
+      </c>
+      <c r="C47">
+        <v>250</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>185.3</v>
+      </c>
+      <c r="C48">
+        <v>250</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>70.3</v>
+      </c>
+      <c r="C49">
+        <v>250</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>250</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>250</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>86.1</v>
+      </c>
+      <c r="C52">
+        <v>250</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>250</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>36.9</v>
+      </c>
+      <c r="C54">
+        <v>250</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>178.3</v>
+      </c>
+      <c r="C55">
+        <v>250</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>80</v>
+      </c>
+      <c r="C56">
+        <v>250</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>220</v>
+      </c>
+      <c r="C57">
+        <v>250</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>160</v>
+      </c>
+      <c r="C58">
+        <v>250</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>250</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>250</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>400</v>
+      </c>
+      <c r="C61">
+        <v>250</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>250</v>
+      </c>
+      <c r="D62">
         <v>100</v>
       </c>
     </row>
